--- a/数据整理/stocks/A股/上证主板/601155-新城控股.xlsx
+++ b/数据整理/stocks/A股/上证主板/601155-新城控股.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,720 +512,980 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>33.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>66.61</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.37</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1269</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>66.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1269</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7811</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6143</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4694</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4647</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3801</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2953</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2061</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>217002</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>招商安泰平衡混合</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>47.02</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>3.44</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160218</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰国证房地产行业指数</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>92.95</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>46.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160628</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华中证800地产指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>161721</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>招商沪深300地产等权重指数</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>6.98</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>512200</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>南方中证全指房地产ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>99.69</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>515060</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华夏中证全指房地产ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>98.50</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>519690</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>交银稳健配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>66.61</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000256</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上投摩根红利回报混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005662</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>嘉实金融精选股票A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>88.18</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005663</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>嘉实金融精选股票C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>88.18</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>070027</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>嘉实周期优选混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>92.49</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002436</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上投摩根红利回报混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002436</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>上投摩根红利回报混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>26.24</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>000256</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>上投摩根红利回报混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>26.24</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>519185</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>万家精选混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>93.56</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>6.23</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001518</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>万家瑞兴灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>93.37</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>8.81</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>006926</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>长城量化精选股票A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>86.67</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>4.53</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>007133</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>嘉实长青竞争优势股票A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>89.40</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>007134</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>嘉实长青竞争优势股票C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>89.40</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>002317</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>招商睿逸稳健配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>46.67</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>009126</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>嘉实基础产业优选股票A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>009127</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>嘉实基础产业优选股票C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>011463</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>长城量化精选股票C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>515500</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>海富通中证长三角领先ETF</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>005576</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>华泰柏瑞新金融地产灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>6.67</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>519191</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>万家新利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>94.11</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>9.02</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>519212</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>万家宏观择时多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>93.85</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>8.96</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1225,7 +1495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1246,15 +1516,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003912</t>
+          <t>162607</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰达宏利启富灵活配置混合A</t>
+          <t>景顺长城资源垄断混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36.61</t>
+          <t>23.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8545</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003913</t>
+          <t>000772</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰达宏利启富灵活配置混合C</t>
+          <t>景顺长城中国回报灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>36.61</t>
+          <t>18.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3610</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1322,25 +1622,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>200012</t>
+          <t>512200</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长城中小盘成长混合</t>
+          <t>南方中证全指房地产ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>85.41</t>
+          <t>19.55</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>99.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1378</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1350,25 +1660,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004913</t>
+          <t>519185</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中银证券聚瑞混合A</t>
+          <t>万家精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>27.10</t>
+          <t>7.88</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7273</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004914</t>
+          <t>005662</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中银证券聚瑞混合C</t>
+          <t>嘉实金融精选股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27.10</t>
+          <t>9.93</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7001</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003366</t>
+          <t>070027</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>浙商汇金中证转型成长指数</t>
+          <t>嘉实周期优选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>95.44</t>
+          <t>11.28</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6396</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005331</t>
+          <t>200007</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>益民优势安享灵活配置混合</t>
+          <t>长城安心回报混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>90.15</t>
+          <t>15.29</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5137</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000507</t>
+          <t>161721</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>泰达宏利宏达混合A</t>
+          <t>招商沪深300地产等权重指数</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>24.78</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4522</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000508</t>
+          <t>006769</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>泰达宏利宏达混合B</t>
+          <t>长城研究精选混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>24.78</t>
+          <t>11.07</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4373</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006857</t>
+          <t>160218</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>蜂巢卓睿灵活配置混合A</t>
+          <t>国泰国证房地产行业指数</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>61.80</t>
+          <t>6.97</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3917</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006858</t>
+          <t>200012</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>蜂巢卓睿灵活配置混合C</t>
+          <t>长城中小盘成长混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>61.80</t>
+          <t>11.35</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3711</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>162205</t>
+          <t>009499</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>泰达宏利风险预算混合</t>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>28.61</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
+          <t>29.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3048</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>217002</t>
+          <t>160628</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>招商安泰平衡混合</t>
+          <t>鹏华中证800地产指数（LOF）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>46.51</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2211</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009904</t>
+          <t>010602</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>民生加银中证200指数增强A</t>
+          <t>长城均衡优选混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.93</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
+          <t>43.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2184</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009905</t>
+          <t>519191</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>民生加银中证200指数增强C</t>
+          <t>万家新利灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>94.93</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2066</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1686,25 +2116,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>000410</t>
+          <t>217002</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>益民服务领先灵活配置混合</t>
+          <t>招商安泰平衡混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>89.62</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
+          <t>46.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1986</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>000772</t>
+          <t>001758</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>景顺长城中国回报灵活配置混合</t>
+          <t>嘉实研究增强灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>92.77</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>7.47</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>3</v>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1770</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>006769</t>
+          <t>002317</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>长城研究精选混合</t>
+          <t>招商睿逸稳健配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>84.13</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
+          <t>46.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1583</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>010602</t>
+          <t>009126</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>长城均衡优选混合</t>
+          <t>嘉实基础产业优选股票A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>43.02</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>4</v>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1348</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>512040</t>
+          <t>162205</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>富国中证价值ETF</t>
+          <t>泰达宏利风险预算混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>98.57</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>512200</t>
+          <t>005663</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>南方中证全指房地产ETF</t>
+          <t>嘉实金融精选股票C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>99.66</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5.82</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>3</v>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>512530</t>
+          <t>515060</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>建信沪深300红利ETF</t>
+          <t>华夏中证全指房地产ETF</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>94.60</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>2</v>
+          <t>97.97</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>515060</t>
+          <t>519212</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华夏中证全指房地产ETF</t>
+          <t>万家宏观择时多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>97.97</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>3</v>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>515500</t>
+          <t>000507</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>海富通中证长三角领先ETF</t>
+          <t>泰达宏利宏达混合A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>9</v>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -1948,15 +2468,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>93.83</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>9.86</t>
         </is>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>070027</t>
+          <t>002601</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>嘉实周期优选混合</t>
+          <t>中银证券价值精选灵活配置混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>90.74</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>6</v>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>519185</t>
+          <t>000410</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>万家精选混合</t>
+          <t>益民服务领先灵活配置混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>9.23</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>2</v>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -2022,25 +2572,35 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>519191</t>
+          <t>009755</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>万家新利灵活配置混合</t>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>9.18</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
+          <t>29.62</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>519212</t>
+          <t>515500</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>万家宏观择时多策略灵活配置混合</t>
+          <t>海富通中证长三角领先ETF</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>94.11</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>9.70</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>1</v>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -2078,25 +2648,35 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>001758</t>
+          <t>162212</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>嘉实研究增强灵活配置混合</t>
+          <t>泰达宏利红利先锋混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2106,26 +2686,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>160218</t>
+          <t>005331</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>国泰国证房地产行业指数</t>
+          <t>益民优势安享灵活配置混合</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>4</v>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -2134,26 +2724,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>160628</t>
+          <t>512530</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>鹏华中证800地产指数（LOF）</t>
+          <t>建信沪深300红利ETF</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>94.22</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>6.91</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>3</v>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -2162,26 +2762,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>002263</t>
+          <t>003912</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>泰达宏利同顺大数据量化优选灵活配置混合A</t>
+          <t>泰达宏利启富灵活配置混合A</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>44.96</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>8</v>
+          <t>36.61</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -2190,26 +2800,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>003554</t>
+          <t>512040</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>泰达宏利同顺大数据量化优选灵活配置混合C</t>
+          <t>富国中证价值ETF</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>44.96</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>8</v>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -2218,26 +2838,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>002317</t>
+          <t>000508</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>招商睿逸稳健配置混合</t>
+          <t>泰达宏利宏达混合B</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>46.24</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>5</v>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -2246,26 +2876,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>161721</t>
+          <t>009127</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>招商沪深300地产等权重指数</t>
+          <t>嘉实基础产业优选股票C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>94.99</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10.05</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>2</v>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="38">
@@ -2274,26 +2914,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>162212</t>
+          <t>002263</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>泰达宏利红利先锋混合</t>
+          <t>泰达宏利同顺大数据量化优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>92.70</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>10</v>
+          <t>44.96</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -2312,15 +2962,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>26.41</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>0.92</t>
         </is>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2330,26 +2990,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>002601</t>
+          <t>003554</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中银证券价值精选灵活配置混合</t>
+          <t>泰达宏利同顺大数据量化优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>93.23</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>4</v>
+          <t>44.96</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -2358,26 +3028,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>200007</t>
+          <t>006857</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>长城安心回报混合</t>
+          <t>蜂巢卓睿灵活配置混合A</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>80.43</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>8</v>
+          <t>61.80</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -2386,26 +3066,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>005662</t>
+          <t>003913</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>嘉实金融精选股票A</t>
+          <t>泰达宏利启富灵活配置混合C</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>90.84</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>7.05</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>4</v>
+          <t>36.61</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -2414,26 +3104,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>005663</t>
+          <t>009904</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>嘉实金融精选股票C</t>
+          <t>民生加银中证200指数增强A</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>90.84</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>7.05</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>4</v>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -2442,26 +3142,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>009126</t>
+          <t>004913</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>嘉实基础产业优选股票A</t>
+          <t>中银证券聚瑞混合A</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>91.50</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>6</v>
+          <t>27.10</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -2470,26 +3180,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>009127</t>
+          <t>003366</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>嘉实基础产业优选股票C</t>
+          <t>浙商汇金中证转型成长指数</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>91.50</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>6</v>
+          <t>95.44</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2498,26 +3218,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>009499</t>
+          <t>006858</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>景顺长城安鑫回报一年持有期混合A</t>
+          <t>蜂巢卓睿灵活配置混合C</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>29.62</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>1</v>
+          <t>61.80</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -2526,26 +3256,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>009755</t>
+          <t>009905</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>景顺长城安鑫回报一年持有期混合C</t>
+          <t>民生加银中证200指数增强C</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>29.62</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>1</v>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="48">
@@ -2554,26 +3294,30 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>162607</t>
+          <t>004914</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>景顺长城资源垄断混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>92.99</t>
-        </is>
-      </c>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>7.99</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>4</v>
+          <t>27.10</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601155-新城控股.xlsx
+++ b/数据整理/stocks/A股/上证主板/601155-新城控股.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3302,7 +3303,6 @@
           <t>中银证券聚瑞混合C</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
           <t>27.10</t>
@@ -3318,6 +3318,1468 @@
       </c>
       <c r="H48" t="n">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519778</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3543</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5816</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008955</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德创新领航混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>45.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5655</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1602</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>070003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实稳健混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0039</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8963</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6561</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5965</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5740</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5575</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4511</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3293</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2182</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1899</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>40.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1692</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1507</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>40.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1300</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000585</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实对冲套利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>55.03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010558</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001577</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实低价策略股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000410</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>益民服务领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010559</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004560</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005331</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>益民优势安享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>970020</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006603</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实互融精选股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>970021</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>27.49</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004561</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601155-新城控股.xlsx
+++ b/数据整理/stocks/A股/上证主板/601155-新城控股.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4785,4 +4786,1352 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7527</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0407</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8048</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>070003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实稳健混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>66.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7893</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7825</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7651</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5812</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5347</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5345</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4228</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3082</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2872</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2497</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1739</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1660</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>46.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1516</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>45.19</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1213</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1165</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001577</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实低价策略股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>65.60</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>970020</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>50.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>75.04</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>69.32</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>970021</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>50.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>77.35</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006603</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实互融精选股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601155-新城控股.xlsx
+++ b/数据整理/stocks/A股/上证主板/601155-新城控股.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6134,4 +6135,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>37</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>47</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601155-新城控股.xlsx
+++ b/数据整理/stocks/A股/上证主板/601155-新城控股.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6143,7 +6144,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6154,17 +6155,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6174,14 +6195,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>34</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.15</v>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4411</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -6190,14 +6233,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>37</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.58</v>
+          <t>012671</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0493</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -6206,14 +6271,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>47</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.08</v>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0067</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -6222,13 +6309,1405 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9674</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8527</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7954</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7844</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>070003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实稳健混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7511</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5731</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4871</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4065</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2916</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2766</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2620</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1959</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1910</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1460</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007257</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>凯石沣混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>63.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1421</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012963</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1375</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>47.49</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>44.80</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001577</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实低价策略股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>95.63</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>51.03</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012244</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>070017</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实量化阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012672</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012245</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012964</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>63.45</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001068</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华融新锐灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>61.38</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007258</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>凯石沣混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>63.99</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>37</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>47</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>26</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>6.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601155-新城控股.xlsx
+++ b/数据整理/stocks/A股/上证主板/601155-新城控股.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7606,7 +7607,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7617,17 +7618,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7637,14 +7658,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>37</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.53</v>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8063</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -7653,14 +7696,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>34</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.15</v>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5363</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -7669,14 +7734,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>37</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.58</v>
+          <t>070003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实稳健混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1447</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -7685,14 +7772,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>47</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.08</v>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1377</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -7701,13 +7810,2561 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>519035</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国天博创新混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1277</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0708</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0508</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0421</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信达澳银周期动力混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>30.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8027</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012671</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7133</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>44.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7096</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>44.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7092</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6427</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5722</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>23.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4029</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3984</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>77.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3806</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3140</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>168102</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>九泰锐富事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3126</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011921</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2978</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2955</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>163811</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银稳健双利债券A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>21.64</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2943</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2483</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2108</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1885</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1880</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1791</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1749</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1650</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>39.60</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1610</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1570</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>49.93</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1311</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1307</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>48.74</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001577</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实低价策略股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>信达澳银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>25.86</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012963</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>64.08</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>39.60</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>77.42</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005231</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>红塔红土盛通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>69.33</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005232</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>红塔红土盛通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>69.33</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011807</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>070017</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉实量化阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000066</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012672</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012964</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>64.08</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013029</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实鑫泰一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014014</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>40.88</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011438</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>79.05</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011922</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富国均衡成长三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>67.47</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>信达澳银新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011808</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>163812</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中银稳健双利债券B</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>013030</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉实鑫泰一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>95.16</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011439</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>79.05</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>014015</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>40.88</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>68</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>37</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>34</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>47</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>26</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>6.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601155-新城控股.xlsx
+++ b/数据整理/stocks/A股/上证主板/601155-新城控股.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10247,7 +10248,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10258,17 +10259,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10278,14 +10299,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>68</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20.07</v>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>73.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3980</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -10294,14 +10337,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>37</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.53</v>
+          <t>002211</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>43.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2849</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -10310,14 +10375,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>34</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.15</v>
+          <t>013273</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>12.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5437</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -10326,14 +10413,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>37</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13.58</v>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8464</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -10342,14 +10451,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>47</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11.08</v>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7401</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -10358,13 +10489,1625 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>12.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7349</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013500</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6878</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012671</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6162</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5825</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>070013</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5353</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4487</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>168102</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>九泰锐富事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3012</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2617</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2011</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1991</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1872</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1184</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015042</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519629</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银河睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>41.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519630</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银河睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>41.75</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519652</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>24.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519625</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010971</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏永鑫六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519626</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005231</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>红塔红土盛通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013600</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>九泰锐富事件驱动混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>77.73</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>天治财富增长混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>70.51</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005232</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>红塔红土盛通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006547</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>红塔红土盛弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>61.47</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012672</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001352</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>970020</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>63.29</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008846</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>970021</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>63.29</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009796</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519646</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - I</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>24.08</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006548</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>红塔红土盛弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>61.47</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008847</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010972</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏永鑫六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011391</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009797</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519653</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>24.08</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>960025</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合H</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>44</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>68</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>34</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>37</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.58</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>47</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.08</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>26</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>6.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601155-新城控股.xlsx
+++ b/数据整理/stocks/A股/上证主板/601155-新城控股.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>13.37</v>
+        <v>7.05</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D3" t="n">
-        <v>20.07</v>
+        <v>13.37</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="D4" t="n">
-        <v>11.53</v>
+        <v>20.07</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D5" t="n">
-        <v>10.15</v>
+        <v>11.53</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D6" t="n">
-        <v>13.58</v>
+        <v>10.15</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D7" t="n">
-        <v>11.08</v>
+        <v>13.58</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>47</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11.08</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>26</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>6.38</v>
       </c>
     </row>
@@ -600,6 +617,1316 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002211</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9211</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9965</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013273</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6563</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5088</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4753</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4095</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012671</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4048</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3257</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2155</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003956</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方产业智选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1750</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014872</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实品质蓝筹一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159768</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华中证内地地产主题ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>673100</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西部利得沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>673101</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>西部利得沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159707</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝中证800地产ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>015674</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015042</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>56.51</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012672</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008629</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成景瑞稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008630</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成景瑞稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014049</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>56.51</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014873</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实品质蓝筹一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014050</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2325,7 +3652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4965,7 +6292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6427,7 +7754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7775,7 +9102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9237,7 +10564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11072,7 +12399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601155-新城控股.xlsx
+++ b/数据整理/stocks/A股/上证主板/601155-新城控股.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="D2" t="n">
-        <v>7.05</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
-        <v>13.37</v>
+        <v>7.05</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D4" t="n">
-        <v>20.07</v>
+        <v>13.37</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="D5" t="n">
-        <v>11.53</v>
+        <v>20.07</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D6" t="n">
-        <v>10.15</v>
+        <v>11.53</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D7" t="n">
-        <v>13.58</v>
+        <v>10.15</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D8" t="n">
-        <v>11.08</v>
+        <v>13.58</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1074 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>47</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.08</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>26</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>6.38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>960017</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合H</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>66.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1269</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>66.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1269</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7811</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6143</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4694</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4647</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3801</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2953</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2061</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>47.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>46.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000256</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上投摩根红利回报混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002436</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上投摩根红利回报混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1678,2676 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002211</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2520</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2791</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013273</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0395</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>34.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9867</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6379</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010417</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商盛洋3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5890</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012671</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4690</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4229</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4189</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>070013</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3941</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3940</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3915</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2827</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2672</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501186</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏兴融灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2410</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015294</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金鹰时代领航一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2251</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1948</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1438</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1390</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159707</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝中证800地产ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006398</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>宝盈祥颐定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>33.77</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014872</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实品质蓝筹一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1251</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1147</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014119</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金鹰时代先锋混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015293</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金鹰时代领航一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009126</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010764</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>九泰锐升混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159768</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华中证内地地产主题ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001749</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商中国机遇股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009419</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>宝盈祥明一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011736</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>宝盈祥庆9个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>30.03</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005295</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>诺德天富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003885</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇安沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519652</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>26.15</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>29.44</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003884</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇安沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012672</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实核心蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>015042</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008110</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>61.70</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008136</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>61.70</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>015674</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008629</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>大成景瑞稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>29.66</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011737</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>宝盈祥庆9个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>30.03</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006399</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>宝盈祥颐定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>33.77</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009127</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>嘉实基础产业优选股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004731</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>万家瑞尧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014120</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>金鹰时代先锋混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004732</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>万家瑞尧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007084</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>天治转型升级混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008630</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>大成景瑞稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>29.66</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>519646</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - I</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>26.15</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>519099</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>新华灵活主题混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014873</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>嘉实品质蓝筹一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011494</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合发起A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>36.70</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009420</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>宝盈祥明一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>013489</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011495</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合发起C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>36.70</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>015147</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华夏兴融灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>016564</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>960025</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合H</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>519653</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>-0.36</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>26.15</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>-0.0039</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1926,7 +5657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3652,7 +7383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6292,7 +10023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7754,7 +11485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9102,7 +12833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10564,7 +14295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12397,1048 +16128,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>960017</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银稳健配置混合H</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>33.44</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>66.61</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.1269</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519690</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>交银稳健配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>33.44</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>66.61</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.1269</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>512200</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方中证全指房地产ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>19.48</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.69</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7811</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519185</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>万家精选混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>9.86</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.56</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.23</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.6143</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005662</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>嘉实金融精选股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>9.35</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.18</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4694</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>070027</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>嘉实周期优选混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>10.49</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.49</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4647</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>160218</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国泰国证房地产行业指数</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>10.03</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.95</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3801</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>161721</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>招商沪深300地产等权重指数</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.98</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2953</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>160628</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>鹏华中证800地产指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2061</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>519191</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>万家新利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.11</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>9.02</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1624</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>217002</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>招商安泰平衡混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>47.02</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1417</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002317</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>招商睿逸稳健配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>46.67</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1131</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009126</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>嘉实基础产业优选股票A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1076</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>519212</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>万家宏观择时多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.85</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>8.96</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0797</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005663</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>嘉实金融精选股票C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>88.18</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0658</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>515500</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>海富通中证长三角领先ETF</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0613</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001518</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>万家瑞兴灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.37</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>8.81</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0537</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>515060</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华夏中证全指房地产ETF</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>98.50</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0426</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005576</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华泰柏瑞新金融地产灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>6.67</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0374</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>006926</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>长城量化精选股票A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0186</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>009127</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>嘉实基础产业优选股票C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0135</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>007133</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>嘉实长青竞争优势股票A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>89.40</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0119</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>000256</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>上投摩根红利回报混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>26.24</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>007134</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>嘉实长青竞争优势股票C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>89.40</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>002436</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>上投摩根红利回报混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>26.24</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>011463</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>长城量化精选股票C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>